--- a/src/files/BD.xlsx
+++ b/src/files/BD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arang\Downloads\ProyectoFinalPoo\src\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{780404F1-3F48-4C24-B14C-A666CBFC22DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457B6DFA-D845-4D87-BBF4-0CCBAB5C06C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{98DE0EC7-51D9-420C-A038-21A631DBCF84}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{98DE0EC7-51D9-420C-A038-21A631DBCF84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="68">
   <si>
     <t>Tema</t>
   </si>
@@ -238,6 +238,9 @@
   </si>
   <si>
     <t>Problema12</t>
+  </si>
+  <si>
+    <t>Valor</t>
   </si>
 </sst>
 </file>
@@ -309,9 +312,9 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -342,11 +345,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FFFA1768-5FAF-4578-8DE0-3F1BFAA92D71}" name="Table2" displayName="Table2" ref="A1:B49" totalsRowShown="0">
-  <autoFilter ref="A1:B49" xr:uid="{FFFA1768-5FAF-4578-8DE0-3F1BFAA92D71}"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FFFA1768-5FAF-4578-8DE0-3F1BFAA92D71}" name="Table2" displayName="Table2" ref="A1:C49" totalsRowShown="0">
+  <autoFilter ref="A1:C49" xr:uid="{FFFA1768-5FAF-4578-8DE0-3F1BFAA92D71}"/>
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{1F8EB648-9598-45BF-8175-EBD0DC0F3BA9}" name="id"/>
     <tableColumn id="2" xr3:uid="{515D636B-AF71-4214-BD19-494593935D8B}" name="Opcion"/>
+    <tableColumn id="3" xr3:uid="{8E8ED669-FC2C-4565-8DE4-B7A5FE6772C0}" name="Valor"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -671,7 +675,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9EEBFF0-9B64-4854-9DC8-E9756050ED9C}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -835,10 +839,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24B70C11-B6DB-4E42-8D48-D43A2A7EC852}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -847,403 +851,543 @@
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>2</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>3</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>3</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>3</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>3</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>4</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>4</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>4</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>4</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>5</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>5</v>
       </c>
       <c r="B19" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>5</v>
       </c>
       <c r="B20" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>5</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>6</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>6</v>
       </c>
       <c r="B23" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>6</v>
       </c>
       <c r="B24" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>6</v>
       </c>
       <c r="B25" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>7</v>
       </c>
       <c r="B26" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>7</v>
       </c>
       <c r="B27" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>7</v>
       </c>
       <c r="B28" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>7</v>
       </c>
       <c r="B29" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>8</v>
       </c>
       <c r="B30" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>8</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>8</v>
       </c>
       <c r="B32" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>8</v>
       </c>
       <c r="B33" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>9</v>
       </c>
       <c r="B34" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>9</v>
       </c>
       <c r="B35" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>9</v>
       </c>
       <c r="B36" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>9</v>
       </c>
       <c r="B37" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>10</v>
       </c>
       <c r="B38" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>10</v>
       </c>
       <c r="B39" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>10</v>
       </c>
       <c r="B40" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>10</v>
       </c>
       <c r="B41" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>11</v>
       </c>
       <c r="B42" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>11</v>
       </c>
       <c r="B43" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>11</v>
       </c>
       <c r="B44" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>11</v>
       </c>
       <c r="B45" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>12</v>
       </c>
       <c r="B46" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>12</v>
       </c>
       <c r="B47" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>12</v>
       </c>
       <c r="B48" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>12</v>
       </c>
       <c r="B49" t="s">
         <v>53</v>
+      </c>
+      <c r="C49">
+        <v>5000</v>
       </c>
     </row>
   </sheetData>

--- a/src/files/BD.xlsx
+++ b/src/files/BD.xlsx
@@ -1,36 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OLD\Universidad\3° UN\P.O.O\Proyectos\ProyectoFinalPoo\src\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Janus\Documents\GitHub\ProyectoFinalPoo\src\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D52D710-2268-4AE5-A5F7-24BB45E818C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D4EB21-864B-4700-8072-A111D2948920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{98DE0EC7-51D9-420C-A038-21A631DBCF84}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{98DE0EC7-51D9-420C-A038-21A631DBCF84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - Preguntas" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2 - Respuestas" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -394,7 +383,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -648,22 +637,6 @@
   <dxfs count="14">
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="4" tint="0.39997558519241921"/>
@@ -720,13 +693,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="4" tint="0.39997558519241921"/>
@@ -740,6 +706,29 @@
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -774,22 +763,22 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8514887A-66B6-4D1C-88BD-374CB1C9FC43}" name="Table1" displayName="Table1" ref="A1:C13" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A1:C13" xr:uid="{8514887A-66B6-4D1C-88BD-374CB1C9FC43}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{DF8E2546-1DCA-41B3-A75A-0E94D0366165}" name="Tema" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{DF8E2546-1DCA-41B3-A75A-0E94D0366165}" name="Tema" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{A1BC0005-CCE8-4936-9F95-997DE91C895B}" name="Problema" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{C74F636B-C150-445D-9E5B-38EB0352F937}" name="id" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{C74F636B-C150-445D-9E5B-38EB0352F937}" name="id" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FFFA1768-5FAF-4578-8DE0-3F1BFAA92D71}" name="Table2" displayName="Table2" ref="A1:D60" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FFFA1768-5FAF-4578-8DE0-3F1BFAA92D71}" name="Table2" displayName="Table2" ref="A1:D60" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
   <autoFilter ref="A1:D60" xr:uid="{FFFA1768-5FAF-4578-8DE0-3F1BFAA92D71}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1F8EB648-9598-45BF-8175-EBD0DC0F3BA9}" name="id" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{515D636B-AF71-4214-BD19-494593935D8B}" name="Opcion" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{CDB08CD7-52D6-40C4-B7B2-A92A48F682A4}" name="Explicacion" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{8E8ED669-FC2C-4565-8DE4-B7A5FE6772C0}" name="Valor" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{1F8EB648-9598-45BF-8175-EBD0DC0F3BA9}" name="id" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{515D636B-AF71-4214-BD19-494593935D8B}" name="Opcion" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{CDB08CD7-52D6-40C4-B7B2-A92A48F682A4}" name="Explicacion" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{8E8ED669-FC2C-4565-8DE4-B7A5FE6772C0}" name="Valor" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1114,19 +1103,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9EEBFF0-9B64-4854-9DC8-E9756050ED9C}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="60" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="3"/>
-    <col min="4" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="14.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.75" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.125" style="3"/>
+    <col min="4" max="16384" width="9.125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="14.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1137,7 +1126,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="60" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1148,7 +1137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="60" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1159,7 +1148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="60" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -1170,7 +1159,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="60" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1181,7 +1170,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="60" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -1192,7 +1181,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="60" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -1203,7 +1192,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="60" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -1214,7 +1203,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="60" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
@@ -1225,7 +1214,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="60" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
@@ -1236,7 +1225,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="60" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
@@ -1247,7 +1236,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="60" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -1258,7 +1247,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
@@ -1282,18 +1271,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24B70C11-B6DB-4E42-8D48-D43A2A7EC852}">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="60" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="60.7109375" style="5" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="5"/>
+    <col min="2" max="3" width="60.75" style="5" customWidth="1"/>
+    <col min="4" max="16384" width="9.125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="14.25">
       <c r="A1" s="14" t="s">
         <v>4</v>
       </c>
@@ -1307,7 +1296,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="60" customHeight="1">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -1318,10 +1307,10 @@
         <v>109</v>
       </c>
       <c r="D2" s="10">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="60" customHeight="1">
       <c r="A3" s="17">
         <v>1</v>
       </c>
@@ -1332,10 +1321,10 @@
         <v>110</v>
       </c>
       <c r="D3" s="10">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="60" customHeight="1">
       <c r="A4" s="17">
         <v>1</v>
       </c>
@@ -1346,10 +1335,10 @@
         <v>111</v>
       </c>
       <c r="D4" s="10">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="60" customHeight="1">
       <c r="A5" s="17">
         <v>1</v>
       </c>
@@ -1360,16 +1349,16 @@
         <v>112</v>
       </c>
       <c r="D5" s="10">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="3" customHeight="1">
       <c r="A6" s="18"/>
       <c r="B6" s="19"/>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
     </row>
-    <row r="7" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="60" customHeight="1">
       <c r="A7" s="8">
         <v>2</v>
       </c>
@@ -1380,10 +1369,10 @@
         <v>68</v>
       </c>
       <c r="D7" s="7">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="60" customHeight="1">
       <c r="A8" s="21">
         <v>2</v>
       </c>
@@ -1394,10 +1383,10 @@
         <v>71</v>
       </c>
       <c r="D8" s="11">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="60" customHeight="1">
       <c r="A9" s="21">
         <v>2</v>
       </c>
@@ -1408,10 +1397,10 @@
         <v>70</v>
       </c>
       <c r="D9" s="12">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="60" customHeight="1">
       <c r="A10" s="21">
         <v>2</v>
       </c>
@@ -1422,16 +1411,16 @@
         <v>69</v>
       </c>
       <c r="D10" s="11">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="3" customHeight="1">
       <c r="A11" s="18"/>
       <c r="B11" s="19"/>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
     </row>
-    <row r="12" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="60" customHeight="1">
       <c r="A12" s="17">
         <v>3</v>
       </c>
@@ -1442,10 +1431,10 @@
         <v>72</v>
       </c>
       <c r="D12" s="10">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="60" customHeight="1">
       <c r="A13" s="17">
         <v>3</v>
       </c>
@@ -1456,10 +1445,10 @@
         <v>73</v>
       </c>
       <c r="D13" s="10">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="60" customHeight="1">
       <c r="A14" s="17">
         <v>3</v>
       </c>
@@ -1470,10 +1459,10 @@
         <v>75</v>
       </c>
       <c r="D14" s="10">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="60" customHeight="1">
       <c r="A15" s="17">
         <v>3</v>
       </c>
@@ -1484,16 +1473,16 @@
         <v>74</v>
       </c>
       <c r="D15" s="10">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="3" customHeight="1">
       <c r="A16" s="18"/>
       <c r="B16" s="19"/>
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
     </row>
-    <row r="17" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="60" customHeight="1">
       <c r="A17" s="21">
         <v>4</v>
       </c>
@@ -1504,10 +1493,10 @@
         <v>113</v>
       </c>
       <c r="D17" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="60" customHeight="1">
       <c r="A18" s="21">
         <v>4</v>
       </c>
@@ -1518,10 +1507,10 @@
         <v>114</v>
       </c>
       <c r="D18" s="11">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="60" customHeight="1">
       <c r="A19" s="21">
         <v>4</v>
       </c>
@@ -1532,10 +1521,10 @@
         <v>115</v>
       </c>
       <c r="D19" s="12">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="60" customHeight="1">
       <c r="A20" s="21">
         <v>4</v>
       </c>
@@ -1546,16 +1535,16 @@
         <v>116</v>
       </c>
       <c r="D20" s="11">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="3" customHeight="1">
       <c r="A21" s="18"/>
       <c r="B21" s="19"/>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
     </row>
-    <row r="22" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="60" customHeight="1">
       <c r="A22" s="17">
         <v>5</v>
       </c>
@@ -1566,10 +1555,10 @@
         <v>76</v>
       </c>
       <c r="D22" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="60" customHeight="1">
       <c r="A23" s="17">
         <v>5</v>
       </c>
@@ -1580,10 +1569,10 @@
         <v>79</v>
       </c>
       <c r="D23" s="11">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="60" customHeight="1">
       <c r="A24" s="17">
         <v>5</v>
       </c>
@@ -1594,10 +1583,10 @@
         <v>78</v>
       </c>
       <c r="D24" s="12">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="60" customHeight="1">
       <c r="A25" s="17">
         <v>5</v>
       </c>
@@ -1608,16 +1597,16 @@
         <v>77</v>
       </c>
       <c r="D25" s="11">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="3" customHeight="1">
       <c r="A26" s="18"/>
       <c r="B26" s="19"/>
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
     </row>
-    <row r="27" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="60" customHeight="1">
       <c r="A27" s="21">
         <v>6</v>
       </c>
@@ -1628,10 +1617,10 @@
         <v>80</v>
       </c>
       <c r="D27" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="60" customHeight="1">
       <c r="A28" s="21">
         <v>6</v>
       </c>
@@ -1642,10 +1631,10 @@
         <v>83</v>
       </c>
       <c r="D28" s="11">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="60" customHeight="1">
       <c r="A29" s="21">
         <v>6</v>
       </c>
@@ -1656,10 +1645,10 @@
         <v>82</v>
       </c>
       <c r="D29" s="12">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="60" customHeight="1">
       <c r="A30" s="21">
         <v>6</v>
       </c>
@@ -1670,16 +1659,16 @@
         <v>81</v>
       </c>
       <c r="D30" s="11">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="3" customHeight="1">
       <c r="A31" s="18"/>
       <c r="B31" s="19"/>
       <c r="C31" s="20"/>
       <c r="D31" s="20"/>
     </row>
-    <row r="32" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="60" customHeight="1">
       <c r="A32" s="17">
         <v>7</v>
       </c>
@@ -1690,10 +1679,10 @@
         <v>84</v>
       </c>
       <c r="D32" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="60" customHeight="1">
       <c r="A33" s="17">
         <v>7</v>
       </c>
@@ -1704,10 +1693,10 @@
         <v>85</v>
       </c>
       <c r="D33" s="11">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="60" customHeight="1">
       <c r="A34" s="17">
         <v>7</v>
       </c>
@@ -1718,10 +1707,10 @@
         <v>87</v>
       </c>
       <c r="D34" s="12">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="60" customHeight="1">
       <c r="A35" s="17">
         <v>7</v>
       </c>
@@ -1732,16 +1721,16 @@
         <v>86</v>
       </c>
       <c r="D35" s="11">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="3" customHeight="1">
       <c r="A36" s="18"/>
       <c r="B36" s="19"/>
       <c r="C36" s="20"/>
       <c r="D36" s="20"/>
     </row>
-    <row r="37" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="60" customHeight="1">
       <c r="A37" s="21">
         <v>8</v>
       </c>
@@ -1752,10 +1741,10 @@
         <v>88</v>
       </c>
       <c r="D37" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="60" customHeight="1">
       <c r="A38" s="21">
         <v>8</v>
       </c>
@@ -1766,10 +1755,10 @@
         <v>89</v>
       </c>
       <c r="D38" s="11">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="60" customHeight="1">
       <c r="A39" s="21">
         <v>8</v>
       </c>
@@ -1780,10 +1769,10 @@
         <v>90</v>
       </c>
       <c r="D39" s="12">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="60" customHeight="1">
       <c r="A40" s="21">
         <v>8</v>
       </c>
@@ -1794,16 +1783,16 @@
         <v>91</v>
       </c>
       <c r="D40" s="11">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="3" customHeight="1">
       <c r="A41" s="18"/>
       <c r="B41" s="19"/>
       <c r="C41" s="20"/>
       <c r="D41" s="20"/>
     </row>
-    <row r="42" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="60" customHeight="1">
       <c r="A42" s="22">
         <v>9</v>
       </c>
@@ -1814,10 +1803,10 @@
         <v>93</v>
       </c>
       <c r="D42" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="60" customHeight="1">
       <c r="A43" s="22">
         <v>9</v>
       </c>
@@ -1828,10 +1817,10 @@
         <v>97</v>
       </c>
       <c r="D43" s="11">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="60" customHeight="1">
       <c r="A44" s="22">
         <v>9</v>
       </c>
@@ -1842,10 +1831,10 @@
         <v>98</v>
       </c>
       <c r="D44" s="12">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="60" customHeight="1">
       <c r="A45" s="22">
         <v>9</v>
       </c>
@@ -1856,16 +1845,16 @@
         <v>99</v>
       </c>
       <c r="D45" s="11">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="3" customHeight="1">
       <c r="A46" s="18"/>
       <c r="B46" s="19"/>
       <c r="C46" s="20"/>
       <c r="D46" s="20"/>
     </row>
-    <row r="47" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="60" customHeight="1">
       <c r="A47" s="21">
         <v>10</v>
       </c>
@@ -1876,10 +1865,10 @@
         <v>94</v>
       </c>
       <c r="D47" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="60" customHeight="1">
       <c r="A48" s="21">
         <v>10</v>
       </c>
@@ -1890,10 +1879,10 @@
         <v>101</v>
       </c>
       <c r="D48" s="11">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="60" customHeight="1">
       <c r="A49" s="21">
         <v>10</v>
       </c>
@@ -1904,10 +1893,10 @@
         <v>102</v>
       </c>
       <c r="D49" s="12">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="48" customHeight="1">
       <c r="A50" s="21">
         <v>10</v>
       </c>
@@ -1918,16 +1907,16 @@
         <v>100</v>
       </c>
       <c r="D50" s="11">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="3" customHeight="1">
       <c r="A51" s="18"/>
       <c r="B51" s="19"/>
       <c r="C51" s="20"/>
       <c r="D51" s="20"/>
     </row>
-    <row r="52" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="60" customHeight="1">
       <c r="A52" s="22">
         <v>11</v>
       </c>
@@ -1938,10 +1927,10 @@
         <v>95</v>
       </c>
       <c r="D52" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="60" customHeight="1">
       <c r="A53" s="22">
         <v>11</v>
       </c>
@@ -1952,10 +1941,10 @@
         <v>103</v>
       </c>
       <c r="D53" s="11">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="60" customHeight="1">
       <c r="A54" s="22">
         <v>11</v>
       </c>
@@ -1966,10 +1955,10 @@
         <v>104</v>
       </c>
       <c r="D54" s="12">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="60" customHeight="1">
       <c r="A55" s="22">
         <v>11</v>
       </c>
@@ -1980,16 +1969,16 @@
         <v>105</v>
       </c>
       <c r="D55" s="11">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="3" customHeight="1">
       <c r="A56" s="18"/>
       <c r="B56" s="19"/>
       <c r="C56" s="20"/>
       <c r="D56" s="20"/>
     </row>
-    <row r="57" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="60" customHeight="1">
       <c r="A57" s="21">
         <v>12</v>
       </c>
@@ -2000,10 +1989,10 @@
         <v>96</v>
       </c>
       <c r="D57" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="60" customHeight="1">
       <c r="A58" s="21">
         <v>12</v>
       </c>
@@ -2014,10 +2003,10 @@
         <v>106</v>
       </c>
       <c r="D58" s="11">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="60" customHeight="1">
       <c r="A59" s="21">
         <v>12</v>
       </c>
@@ -2028,10 +2017,10 @@
         <v>107</v>
       </c>
       <c r="D59" s="12">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="60" customHeight="1">
       <c r="A60" s="23">
         <v>12</v>
       </c>
@@ -2042,7 +2031,7 @@
         <v>108</v>
       </c>
       <c r="D60" s="13">
-        <v>125</v>
+        <v>-100</v>
       </c>
     </row>
   </sheetData>

--- a/src/files/BD.xlsx
+++ b/src/files/BD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Janus\Documents\GitHub\ProyectoFinalPoo\src\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arang\Downloads\ProyectoFinalPoo\src\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D4EB21-864B-4700-8072-A111D2948920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5354A2E1-37EA-42EB-BF2F-DB631016893E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{98DE0EC7-51D9-420C-A038-21A631DBCF84}"/>
   </bookViews>
@@ -383,7 +383,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -398,7 +398,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -409,18 +409,6 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF002060"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF002060"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -559,7 +547,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -579,25 +567,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -615,19 +603,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -772,8 +751,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FFFA1768-5FAF-4578-8DE0-3F1BFAA92D71}" name="Table2" displayName="Table2" ref="A1:D60" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
-  <autoFilter ref="A1:D60" xr:uid="{FFFA1768-5FAF-4578-8DE0-3F1BFAA92D71}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FFFA1768-5FAF-4578-8DE0-3F1BFAA92D71}" name="Table2" displayName="Table2" ref="A1:D49" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+  <autoFilter ref="A1:D49" xr:uid="{FFFA1768-5FAF-4578-8DE0-3F1BFAA92D71}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{1F8EB648-9598-45BF-8175-EBD0DC0F3BA9}" name="id" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{515D636B-AF71-4214-BD19-494593935D8B}" name="Opcion" dataDxfId="2"/>
@@ -1107,15 +1086,15 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="60" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.75" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.125" style="3"/>
-    <col min="4" max="16384" width="9.125" style="4"/>
+    <col min="1" max="1" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="3"/>
+    <col min="4" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.25">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1126,7 +1105,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="60" customHeight="1">
+    <row r="2" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1137,7 +1116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="60" customHeight="1">
+    <row r="3" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1148,7 +1127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="60" customHeight="1">
+    <row r="4" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -1159,7 +1138,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="60" customHeight="1">
+    <row r="5" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1170,7 +1149,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="60" customHeight="1">
+    <row r="6" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -1181,7 +1160,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="60" customHeight="1">
+    <row r="7" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -1192,7 +1171,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="60" customHeight="1">
+    <row r="8" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -1203,7 +1182,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="60" customHeight="1">
+    <row r="9" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
@@ -1214,7 +1193,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="60" customHeight="1">
+    <row r="10" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
@@ -1225,7 +1204,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="60" customHeight="1">
+    <row r="11" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
@@ -1236,7 +1215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="60" customHeight="1">
+    <row r="12" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -1247,7 +1226,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
+    <row r="13" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
@@ -1269,20 +1248,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24B70C11-B6DB-4E42-8D48-D43A2A7EC852}">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="60" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="60.75" style="5" customWidth="1"/>
-    <col min="4" max="16384" width="9.125" style="5"/>
+    <col min="2" max="3" width="60.7109375" style="5" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.25">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>4</v>
       </c>
@@ -1296,7 +1275,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="60" customHeight="1">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -1310,7 +1289,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="60" customHeight="1">
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
         <v>1</v>
       </c>
@@ -1324,7 +1303,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="60" customHeight="1">
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
         <v>1</v>
       </c>
@@ -1338,7 +1317,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="60" customHeight="1">
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
         <v>1</v>
       </c>
@@ -1352,688 +1331,623 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="3" customHeight="1">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-    </row>
-    <row r="7" spans="1:4" ht="60" customHeight="1">
-      <c r="A7" s="8">
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <v>2</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C6" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D6" s="7">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="60" customHeight="1">
-      <c r="A8" s="21">
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="18">
         <v>2</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C7" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D7" s="11">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="60" customHeight="1">
-      <c r="A9" s="21">
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="18">
         <v>2</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C8" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D8" s="12">
         <v>-50</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="60" customHeight="1">
-      <c r="A10" s="21">
+    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="18">
         <v>2</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C9" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D9" s="11">
         <v>-100</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="3" customHeight="1">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-    </row>
-    <row r="12" spans="1:4" ht="60" customHeight="1">
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
+        <v>3</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
+        <v>3</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
         <v>3</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D12" s="10">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="60" customHeight="1">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
         <v>3</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D13" s="10">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="18">
+        <v>4</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="18">
+        <v>4</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="11">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="60" customHeight="1">
-      <c r="A14" s="17">
-        <v>3</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="10">
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="18">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="12">
         <v>-50</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="60" customHeight="1">
-      <c r="A15" s="17">
-        <v>3</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" s="10">
+    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="18">
+        <v>4</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="11">
         <v>-100</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="3" customHeight="1">
-      <c r="A16" s="18"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-    </row>
-    <row r="17" spans="1:4" ht="60" customHeight="1">
-      <c r="A17" s="21">
-        <v>4</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="D17" s="12">
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="17">
+        <v>5</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="12">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="60" customHeight="1">
-      <c r="A18" s="21">
-        <v>4</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="D18" s="11">
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
+        <v>5</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="11">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="60" customHeight="1">
-      <c r="A19" s="21">
-        <v>4</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D19" s="12">
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="17">
+        <v>5</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="12">
         <v>-50</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="60" customHeight="1">
-      <c r="A20" s="21">
-        <v>4</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="D20" s="11">
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="17">
+        <v>5</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="11">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="3" customHeight="1">
-      <c r="A21" s="18"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-    </row>
-    <row r="22" spans="1:4" ht="60" customHeight="1">
-      <c r="A22" s="17">
-        <v>5</v>
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="18">
+        <v>6</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D22" s="12">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="60" customHeight="1">
-      <c r="A23" s="17">
-        <v>5</v>
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="18">
+        <v>6</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D23" s="11">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="60" customHeight="1">
-      <c r="A24" s="17">
-        <v>5</v>
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="18">
+        <v>6</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D24" s="12">
         <v>-50</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="60" customHeight="1">
-      <c r="A25" s="17">
-        <v>5</v>
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="18">
+        <v>6</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D25" s="11">
         <v>-100</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="3" customHeight="1">
-      <c r="A26" s="18"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-    </row>
-    <row r="27" spans="1:4" ht="60" customHeight="1">
-      <c r="A27" s="21">
-        <v>6</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D27" s="12">
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="17">
+        <v>7</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="12">
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="60" customHeight="1">
-      <c r="A28" s="21">
-        <v>6</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D28" s="11">
+    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="17">
+        <v>7</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="11">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="60" customHeight="1">
-      <c r="A29" s="21">
-        <v>6</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="12">
+    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="17">
+        <v>7</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="12">
         <v>-50</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="60" customHeight="1">
-      <c r="A30" s="21">
-        <v>6</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D30" s="11">
+    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="17">
+        <v>7</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="11">
         <v>-100</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="3" customHeight="1">
-      <c r="A31" s="18"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-    </row>
-    <row r="32" spans="1:4" ht="60" customHeight="1">
-      <c r="A32" s="17">
-        <v>7</v>
+    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="18">
+        <v>8</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="18">
+        <v>8</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" s="11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="18">
+        <v>8</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>84</v>
+        <v>46</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="D32" s="12">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="18">
+        <v>8</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="11">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="19">
+        <v>9</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" s="12">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="60" customHeight="1">
-      <c r="A33" s="17">
-        <v>7</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D33" s="11">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="19">
+        <v>9</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" s="11">
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="60" customHeight="1">
-      <c r="A34" s="17">
-        <v>7</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D34" s="12">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="19">
+        <v>9</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36" s="12">
         <v>-50</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="60" customHeight="1">
-      <c r="A35" s="17">
-        <v>7</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D35" s="11">
+    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="19">
+        <v>9</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D37" s="11">
         <v>-100</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="3" customHeight="1">
-      <c r="A36" s="18"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-    </row>
-    <row r="37" spans="1:4" ht="60" customHeight="1">
-      <c r="A37" s="21">
-        <v>8</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D37" s="12">
+    <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="18">
+        <v>10</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" s="12">
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="60" customHeight="1">
-      <c r="A38" s="21">
-        <v>8</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" s="11">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="18">
+        <v>10</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D39" s="11">
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="60" customHeight="1">
-      <c r="A39" s="21">
-        <v>8</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D39" s="12">
+    <row r="40" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="18">
+        <v>10</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D40" s="12">
         <v>-50</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="60" customHeight="1">
-      <c r="A40" s="21">
-        <v>8</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D40" s="11">
+    <row r="41" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="18">
+        <v>10</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D41" s="11">
         <v>-100</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="3" customHeight="1">
-      <c r="A41" s="18"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-    </row>
-    <row r="42" spans="1:4" ht="60" customHeight="1">
-      <c r="A42" s="22">
-        <v>9</v>
+    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="19">
+        <v>11</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>93</v>
+        <v>61</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>95</v>
       </c>
       <c r="D42" s="12">
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="60" customHeight="1">
-      <c r="A43" s="22">
-        <v>9</v>
+    <row r="43" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="19">
+        <v>11</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D43" s="11">
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="60" customHeight="1">
-      <c r="A44" s="22">
-        <v>9</v>
+    <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="19">
+        <v>11</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D44" s="12">
         <v>-50</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="60" customHeight="1">
-      <c r="A45" s="22">
-        <v>9</v>
+    <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="19">
+        <v>11</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D45" s="11">
         <v>-100</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="3" customHeight="1">
-      <c r="A46" s="18"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-    </row>
-    <row r="47" spans="1:4" ht="60" customHeight="1">
-      <c r="A47" s="21">
-        <v>10</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D47" s="12">
+    <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="18">
+        <v>12</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" s="12">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="60" customHeight="1">
-      <c r="A48" s="21">
-        <v>10</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D48" s="11">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="18">
+        <v>12</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D47" s="11">
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="60" customHeight="1">
-      <c r="A49" s="21">
-        <v>10</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="D49" s="12">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="18">
+        <v>12</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D48" s="12">
         <v>-50</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="48" customHeight="1">
-      <c r="A50" s="21">
-        <v>10</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="D50" s="11">
+    <row r="49" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="20">
+        <v>12</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D49" s="13">
         <v>-100</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="3" customHeight="1">
-      <c r="A51" s="18"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-    </row>
-    <row r="52" spans="1:4" ht="60" customHeight="1">
-      <c r="A52" s="22">
-        <v>11</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="D52" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="60" customHeight="1">
-      <c r="A53" s="22">
-        <v>11</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D53" s="11">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="60" customHeight="1">
-      <c r="A54" s="22">
-        <v>11</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D54" s="12">
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="60" customHeight="1">
-      <c r="A55" s="22">
-        <v>11</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="D55" s="11">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="3" customHeight="1">
-      <c r="A56" s="18"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-    </row>
-    <row r="57" spans="1:4" ht="60" customHeight="1">
-      <c r="A57" s="21">
-        <v>12</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D57" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="60" customHeight="1">
-      <c r="A58" s="21">
-        <v>12</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D58" s="11">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="60" customHeight="1">
-      <c r="A59" s="21">
-        <v>12</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="D59" s="12">
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="60" customHeight="1">
-      <c r="A60" s="23">
-        <v>12</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D60" s="13">
-        <v>-100</v>
-      </c>
-    </row>
+    <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/files/BD.xlsx
+++ b/src/files/BD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arang\Downloads\ProyectoFinalPoo\src\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OLD\Universidad\3° UN\P.O.O\Proyectos\ProyectoFinalPoo\src\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5354A2E1-37EA-42EB-BF2F-DB631016893E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA17E01E-55CE-484E-B6BF-FD2F973E6948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{98DE0EC7-51D9-420C-A038-21A631DBCF84}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{98DE0EC7-51D9-420C-A038-21A631DBCF84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - Preguntas" sheetId="1" r:id="rId1"/>
@@ -52,9 +52,6 @@
     <t>Valor</t>
   </si>
   <si>
-    <t>Alguien le envía un mensaje a Mr. Microfost diciendo que es su "amigo" y necesita ayuda urgente con dinero. ¿Qué debería hacer?</t>
-  </si>
-  <si>
     <t>Enviar el dinero sin cuestionar, para ayudar rápidamente</t>
   </si>
   <si>
@@ -67,9 +64,6 @@
     <t>Llamar a su amigo verdadero para confirmar la situación antes de hacer algo</t>
   </si>
   <si>
-    <t>Un familiar de Mr. Microfost te comenta que recibió una llamada donde el interlocutor afirma ser del banco y le pide sus datos personales. ¿Qué consejo le darías?</t>
-  </si>
-  <si>
     <t>No dar información y colgar, luego llamar al banco directamente usando un número oficial.</t>
   </si>
   <si>
@@ -82,9 +76,6 @@
     <t>Preguntar si pueden volver a llamar en otro momento para poder verificar.</t>
   </si>
   <si>
-    <t>Un conocido de Mr. Microfost recibe un mensaje de texto de un número que parece oficial, informándole de un supuesto problema en su cuenta bancaria. ¿Qué sería lo mejor que podría hacer?</t>
-  </si>
-  <si>
     <t>Responder con la información solicitada en el mensaje.</t>
   </si>
   <si>
@@ -97,9 +88,6 @@
     <t>Ignorar el mensaje y suponer que es un error.</t>
   </si>
   <si>
-    <t>Mr. Microfost encuentra un perfil en redes sociales que se parece mucho al suyo y le pide seguirlo. ¿Qué debería hacer?</t>
-  </si>
-  <si>
     <t>Reportar el perfil como impostor y verificar la seguridad de su cuenta</t>
   </si>
   <si>
@@ -124,9 +112,6 @@
     <t>Revisar el correo en busca de errores ortográficos y verificar la dirección del remitente antes de responder</t>
   </si>
   <si>
-    <t>Un amigo de Mr. Microfost recibe un correo con el asunto "Has ganado un premio", que incluye un enlace para reclamarlo. ¿Qué debería hacer?</t>
-  </si>
-  <si>
     <t>Hacer clic en el enlace y ver si es una página segura.</t>
   </si>
   <si>
@@ -139,9 +124,6 @@
     <t>Ignorar el correo y avisar a sus contactos.</t>
   </si>
   <si>
-    <t>La madre de Mr. Microfost le comento que recibió un correo donde le piden su contraseña para confirmar un pago que no reconoce. ¿Qué le recomendarías hacer?</t>
-  </si>
-  <si>
     <t>Ignorar el correo y verificar sus transacciones bancarias a través de su banco.</t>
   </si>
   <si>
@@ -154,9 +136,6 @@
     <t>Enviar la contraseña para resolver el problema.</t>
   </si>
   <si>
-    <t>Un familiar de Mr. Microfost le dice que recibió un mensaje por redes sociales donde le piden confirmar datos personales para evitar el cierre de su cuenta. ¿Qué le sugerirías?</t>
-  </si>
-  <si>
     <t>No compartir sus datos y reportar el mensaje como phishing.</t>
   </si>
   <si>
@@ -169,9 +148,6 @@
     <t>Preguntar a sus contactos si han recibido algo similar antes de responder.</t>
   </si>
   <si>
-    <t>Mr. Microfost recibe un correo de su "proveedor de servicios de email" pidiéndole que verifique su cuenta haciendo clic en un enlace. ¿Cuál sería tu mejor consejo?</t>
-  </si>
-  <si>
     <t>Hablar con su amigo y recomendarle establecer un horario balanceado de juego y estudio.</t>
   </si>
   <si>
@@ -184,9 +160,6 @@
     <t>Premiar el estudio con más tiempo de juego.</t>
   </si>
   <si>
-    <t>Mr. Microfost te comenta que cada vez siente más necesidad de revisar su teléfono mientras trabaja, lo que afecta su rendimiento. ¿Cuál sería tu consejo?</t>
-  </si>
-  <si>
     <t>Limitar el uso del teléfono a descansos específicos durante el día.</t>
   </si>
   <si>
@@ -199,9 +172,6 @@
     <t>Desisntalar todas las aplicaciones que usa para dejar de usar el celular</t>
   </si>
   <si>
-    <t>Un familiar de Mr. Microfost  te confiesa que siente ansiedad cuando no puede acceder a sus redes sociales y que esto afecta su estado de ánimo. ¿Qué le sugerirías?</t>
-  </si>
-  <si>
     <t>Ignorar la ansiedad y esperar a que pase sola.</t>
   </si>
   <si>
@@ -214,9 +184,6 @@
     <t>Desinstalar las aplicaciones temporalmente y realizar actividades alternativas.</t>
   </si>
   <si>
-    <t>Mr. Microfost se da cuenta de que pasa tanto tiempo en redes sociales que ya no realiza actividades como hacer ejercicio o leer. ¿Qué le recomendarías?</t>
-  </si>
-  <si>
     <t>Establecer límites de tiempo para redes sociales y planificar actividades alternativas.</t>
   </si>
   <si>
@@ -304,9 +271,6 @@
     <t>Compartir datos en redes sociales puede facilitar el acceso no autorizado.</t>
   </si>
   <si>
-    <t>Un amigo de Mr. Microfost le dice pasa casi todo el día en videojuegos y ha empezado a tener problemas de concentración en la universidad. ¿Qué le recomendarías?</t>
-  </si>
-  <si>
     <t>Un enfoque balanceado promueve un uso saludable de los videojuegos y ayuda a mejorar la concentración universitaria.</t>
   </si>
   <si>
@@ -377,6 +341,42 @@
   </si>
   <si>
     <t>No actuar deja el perfil impostor activo y permite que el atacante continúe con la suplantación, lo cual puede generar consecuencias negativas para el usuario y sus contactos.</t>
+  </si>
+  <si>
+    <t>Recibi un mensaje de alguien que dice ser mi "amigo" y necesita ayuda urgente con dinero. ¿Qué debería hacer?</t>
+  </si>
+  <si>
+    <t>Encuentro un perfil en redes sociales que se parece mucho al mío y me pide seguirlo. ¿Qué debería hacer?</t>
+  </si>
+  <si>
+    <t>Recibi un correo de mi "proveedor de servicios de email" pidiéndome que verifique mi cuenta haciendo clic en un enlace. ¿Cuál sería mi mejor opción?</t>
+  </si>
+  <si>
+    <t>Recibi un correo con el asunto "Has ganado un premio", que incluye un enlace para reclamarlo. ¿Qué debería hacer?</t>
+  </si>
+  <si>
+    <t>Recibi un mensaje de texto de un número que parece oficial, informándome de un supuesto problema en mi cuenta bancaria. ¿Qué sería lo mejor que podría hacer?</t>
+  </si>
+  <si>
+    <t>Un familiar me comento que recibio una llamada donde el interlocutor afirma ser del banco y le pide sus datos personales. ¿Qué consejo le daría?</t>
+  </si>
+  <si>
+    <t>Mi madre me comento que recibió un correo donde le piden su contraseña para confirmar un pago que no reconoce. ¿Qué le recomendaría hacer?</t>
+  </si>
+  <si>
+    <t>Un familiar me dice que recibió un mensaje por redes sociales donde le piden confirmar datos personales para evitar el cierre de su cuenta. ¿Qué le sugeriría?</t>
+  </si>
+  <si>
+    <t>Paso casi todo el día en videojuegos y he empezado a tener problemas de concentración en la universidad. ¿Qué debería hacer?</t>
+  </si>
+  <si>
+    <t>Me di cuenta de que cada vez siento más necesidad de revisar mi teléfono mientras trabajo, lo que afecta mi rendimiento. ¿Qué podría hacer?</t>
+  </si>
+  <si>
+    <t>Siento ansiedad cuando no puedo acceder a mis redes sociales, y esto afecta mi estado de ánimo. ¿Qué debería hacer?</t>
+  </si>
+  <si>
+    <t>Me di cuenta de que paso tanto tiempo en redes sociales que ya no realizo actividades como hacer ejercicio o leer. ¿Qué me recomendarías?</t>
   </si>
 </sst>
 </file>
@@ -1082,11 +1082,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9EEBFF0-9B64-4854-9DC8-E9756050ED9C}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50.7109375" style="4" customWidth="1"/>
@@ -1110,7 +1110,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -1121,7 +1121,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="C3" s="3">
         <v>2</v>
@@ -1132,7 +1132,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="C4" s="3">
         <v>3</v>
@@ -1143,7 +1143,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="C5" s="3">
         <v>4</v>
@@ -1154,7 +1154,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="C6" s="3">
         <v>5</v>
@@ -1165,7 +1165,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="C7" s="3">
         <v>6</v>
@@ -1176,7 +1176,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="C8" s="3">
         <v>7</v>
@@ -1187,7 +1187,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="C9" s="3">
         <v>8</v>
@@ -1198,7 +1198,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="C10" s="3">
         <v>9</v>
@@ -1209,7 +1209,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="C11" s="3">
         <v>10</v>
@@ -1220,7 +1220,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="C12" s="3">
         <v>11</v>
@@ -1231,7 +1231,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="C13" s="3">
         <v>12</v>
@@ -1250,11 +1250,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24B70C11-B6DB-4E42-8D48-D43A2A7EC852}">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="60.7109375" style="5" customWidth="1"/>
@@ -1269,7 +1269,7 @@
         <v>5</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>7</v>
@@ -1280,10 +1280,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D2" s="10">
         <v>100</v>
@@ -1294,10 +1294,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D3" s="10">
         <v>50</v>
@@ -1308,10 +1308,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D4" s="10">
         <v>-50</v>
@@ -1322,10 +1322,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D5" s="10">
         <v>-100</v>
@@ -1336,10 +1336,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D6" s="7">
         <v>100</v>
@@ -1350,10 +1350,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D7" s="11">
         <v>50</v>
@@ -1364,10 +1364,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D8" s="12">
         <v>-50</v>
@@ -1378,10 +1378,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D9" s="11">
         <v>-100</v>
@@ -1392,10 +1392,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D10" s="10">
         <v>100</v>
@@ -1406,10 +1406,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D11" s="10">
         <v>50</v>
@@ -1420,10 +1420,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D12" s="10">
         <v>-50</v>
@@ -1434,10 +1434,10 @@
         <v>3</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D13" s="10">
         <v>-100</v>
@@ -1448,10 +1448,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D14" s="12">
         <v>100</v>
@@ -1462,10 +1462,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D15" s="11">
         <v>50</v>
@@ -1476,10 +1476,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="D16" s="12">
         <v>-50</v>
@@ -1490,10 +1490,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="D17" s="11">
         <v>-100</v>
@@ -1504,10 +1504,10 @@
         <v>5</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D18" s="12">
         <v>100</v>
@@ -1518,10 +1518,10 @@
         <v>5</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D19" s="11">
         <v>50</v>
@@ -1532,10 +1532,10 @@
         <v>5</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D20" s="12">
         <v>-50</v>
@@ -1546,10 +1546,10 @@
         <v>5</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D21" s="11">
         <v>-100</v>
@@ -1560,10 +1560,10 @@
         <v>6</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D22" s="12">
         <v>100</v>
@@ -1574,10 +1574,10 @@
         <v>6</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D23" s="11">
         <v>50</v>
@@ -1588,10 +1588,10 @@
         <v>6</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D24" s="12">
         <v>-50</v>
@@ -1602,10 +1602,10 @@
         <v>6</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D25" s="11">
         <v>-100</v>
@@ -1616,10 +1616,10 @@
         <v>7</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D26" s="12">
         <v>100</v>
@@ -1630,10 +1630,10 @@
         <v>7</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D27" s="11">
         <v>50</v>
@@ -1644,10 +1644,10 @@
         <v>7</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D28" s="12">
         <v>-50</v>
@@ -1658,10 +1658,10 @@
         <v>7</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D29" s="11">
         <v>-100</v>
@@ -1672,10 +1672,10 @@
         <v>8</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D30" s="12">
         <v>100</v>
@@ -1686,10 +1686,10 @@
         <v>8</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D31" s="11">
         <v>50</v>
@@ -1700,10 +1700,10 @@
         <v>8</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D32" s="12">
         <v>-50</v>
@@ -1714,10 +1714,10 @@
         <v>8</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D33" s="11">
         <v>-100</v>
@@ -1728,10 +1728,10 @@
         <v>9</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D34" s="12">
         <v>100</v>
@@ -1742,10 +1742,10 @@
         <v>9</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D35" s="11">
         <v>50</v>
@@ -1756,10 +1756,10 @@
         <v>9</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D36" s="12">
         <v>-50</v>
@@ -1770,10 +1770,10 @@
         <v>9</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D37" s="11">
         <v>-100</v>
@@ -1784,10 +1784,10 @@
         <v>10</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D38" s="12">
         <v>100</v>
@@ -1798,10 +1798,10 @@
         <v>10</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D39" s="11">
         <v>50</v>
@@ -1812,10 +1812,10 @@
         <v>10</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D40" s="12">
         <v>-50</v>
@@ -1826,10 +1826,10 @@
         <v>10</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D41" s="11">
         <v>-100</v>
@@ -1840,10 +1840,10 @@
         <v>11</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D42" s="12">
         <v>100</v>
@@ -1854,10 +1854,10 @@
         <v>11</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D43" s="11">
         <v>50</v>
@@ -1868,10 +1868,10 @@
         <v>11</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D44" s="12">
         <v>-50</v>
@@ -1882,10 +1882,10 @@
         <v>11</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="D45" s="11">
         <v>-100</v>
@@ -1896,10 +1896,10 @@
         <v>12</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D46" s="12">
         <v>100</v>
@@ -1910,24 +1910,24 @@
         <v>12</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="D47" s="11">
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="18">
         <v>12</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D48" s="12">
         <v>-50</v>
@@ -1938,10 +1938,10 @@
         <v>12</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D49" s="13">
         <v>-100</v>

--- a/src/files/BD.xlsx
+++ b/src/files/BD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OLD\Universidad\3° UN\P.O.O\Proyectos\ProyectoFinalPoo\src\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arang\Downloads\ProyectoFinalPoo\src\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA17E01E-55CE-484E-B6BF-FD2F973E6948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9ECF0CF-8693-4723-A716-B61D7B8A0117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{98DE0EC7-51D9-420C-A038-21A631DBCF84}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{98DE0EC7-51D9-420C-A038-21A631DBCF84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - Preguntas" sheetId="1" r:id="rId1"/>
@@ -31,9 +31,6 @@
     <t>Tema</t>
   </si>
   <si>
-    <t>Spofing</t>
-  </si>
-  <si>
     <t>Fishing</t>
   </si>
   <si>
@@ -377,6 +374,9 @@
   </si>
   <si>
     <t>Me di cuenta de que paso tanto tiempo en redes sociales que ya no realizo actividades como hacer ejercicio o leer. ¿Qué me recomendarías?</t>
+  </si>
+  <si>
+    <t>Spoofing</t>
   </si>
 </sst>
 </file>
@@ -1083,10 +1083,10 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="I1" sqref="I1:I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50.7109375" style="4" customWidth="1"/>
@@ -1099,18 +1099,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>116</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -1118,10 +1118,10 @@
     </row>
     <row r="3" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>1</v>
+        <v>116</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C3" s="3">
         <v>2</v>
@@ -1129,10 +1129,10 @@
     </row>
     <row r="4" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>1</v>
+        <v>116</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C4" s="3">
         <v>3</v>
@@ -1140,10 +1140,10 @@
     </row>
     <row r="5" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>1</v>
+        <v>116</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C5" s="3">
         <v>4</v>
@@ -1151,10 +1151,10 @@
     </row>
     <row r="6" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C6" s="3">
         <v>5</v>
@@ -1162,10 +1162,10 @@
     </row>
     <row r="7" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C7" s="3">
         <v>6</v>
@@ -1173,10 +1173,10 @@
     </row>
     <row r="8" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C8" s="3">
         <v>7</v>
@@ -1184,10 +1184,10 @@
     </row>
     <row r="9" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C9" s="3">
         <v>8</v>
@@ -1195,10 +1195,10 @@
     </row>
     <row r="10" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C10" s="3">
         <v>9</v>
@@ -1206,10 +1206,10 @@
     </row>
     <row r="11" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C11" s="3">
         <v>10</v>
@@ -1217,10 +1217,10 @@
     </row>
     <row r="12" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C12" s="3">
         <v>11</v>
@@ -1228,10 +1228,10 @@
     </row>
     <row r="13" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C13" s="3">
         <v>12</v>
@@ -1240,8 +1240,9 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1254,7 +1255,7 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="60.7109375" style="5" customWidth="1"/>
@@ -1263,16 +1264,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>5</v>
-      </c>
       <c r="C1" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1280,10 +1281,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D2" s="10">
         <v>100</v>
@@ -1294,10 +1295,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D3" s="10">
         <v>50</v>
@@ -1308,10 +1309,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D4" s="10">
         <v>-50</v>
@@ -1322,10 +1323,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D5" s="10">
         <v>-100</v>
@@ -1336,10 +1337,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6" s="7">
         <v>100</v>
@@ -1350,10 +1351,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" s="11">
         <v>50</v>
@@ -1364,10 +1365,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" s="12">
         <v>-50</v>
@@ -1378,10 +1379,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D9" s="11">
         <v>-100</v>
@@ -1392,10 +1393,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" s="10">
         <v>100</v>
@@ -1406,10 +1407,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D11" s="10">
         <v>50</v>
@@ -1420,10 +1421,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12" s="10">
         <v>-50</v>
@@ -1434,10 +1435,10 @@
         <v>3</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D13" s="10">
         <v>-100</v>
@@ -1448,10 +1449,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D14" s="12">
         <v>100</v>
@@ -1462,10 +1463,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D15" s="11">
         <v>50</v>
@@ -1476,10 +1477,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D16" s="12">
         <v>-50</v>
@@ -1490,10 +1491,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D17" s="11">
         <v>-100</v>
@@ -1504,10 +1505,10 @@
         <v>5</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D18" s="12">
         <v>100</v>
@@ -1518,10 +1519,10 @@
         <v>5</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D19" s="11">
         <v>50</v>
@@ -1532,10 +1533,10 @@
         <v>5</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D20" s="12">
         <v>-50</v>
@@ -1546,10 +1547,10 @@
         <v>5</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="11">
         <v>-100</v>
@@ -1560,10 +1561,10 @@
         <v>6</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="12">
         <v>100</v>
@@ -1574,10 +1575,10 @@
         <v>6</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="11">
         <v>50</v>
@@ -1588,10 +1589,10 @@
         <v>6</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24" s="12">
         <v>-50</v>
@@ -1602,10 +1603,10 @@
         <v>6</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D25" s="11">
         <v>-100</v>
@@ -1616,10 +1617,10 @@
         <v>7</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D26" s="12">
         <v>100</v>
@@ -1630,10 +1631,10 @@
         <v>7</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D27" s="11">
         <v>50</v>
@@ -1644,10 +1645,10 @@
         <v>7</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D28" s="12">
         <v>-50</v>
@@ -1658,10 +1659,10 @@
         <v>7</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D29" s="11">
         <v>-100</v>
@@ -1672,10 +1673,10 @@
         <v>8</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D30" s="12">
         <v>100</v>
@@ -1686,10 +1687,10 @@
         <v>8</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D31" s="11">
         <v>50</v>
@@ -1700,10 +1701,10 @@
         <v>8</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D32" s="12">
         <v>-50</v>
@@ -1714,10 +1715,10 @@
         <v>8</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D33" s="11">
         <v>-100</v>
@@ -1728,10 +1729,10 @@
         <v>9</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D34" s="12">
         <v>100</v>
@@ -1742,10 +1743,10 @@
         <v>9</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D35" s="11">
         <v>50</v>
@@ -1756,10 +1757,10 @@
         <v>9</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D36" s="12">
         <v>-50</v>
@@ -1770,10 +1771,10 @@
         <v>9</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D37" s="11">
         <v>-100</v>
@@ -1784,10 +1785,10 @@
         <v>10</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D38" s="12">
         <v>100</v>
@@ -1798,10 +1799,10 @@
         <v>10</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D39" s="11">
         <v>50</v>
@@ -1812,10 +1813,10 @@
         <v>10</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D40" s="12">
         <v>-50</v>
@@ -1826,10 +1827,10 @@
         <v>10</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D41" s="11">
         <v>-100</v>
@@ -1840,10 +1841,10 @@
         <v>11</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D42" s="12">
         <v>100</v>
@@ -1854,10 +1855,10 @@
         <v>11</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D43" s="11">
         <v>50</v>
@@ -1868,10 +1869,10 @@
         <v>11</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D44" s="12">
         <v>-50</v>
@@ -1882,10 +1883,10 @@
         <v>11</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D45" s="11">
         <v>-100</v>
@@ -1896,10 +1897,10 @@
         <v>12</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D46" s="12">
         <v>100</v>
@@ -1910,24 +1911,24 @@
         <v>12</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D47" s="11">
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="18">
         <v>12</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D48" s="12">
         <v>-50</v>
@@ -1938,10 +1939,10 @@
         <v>12</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D49" s="13">
         <v>-100</v>

--- a/src/files/BD.xlsx
+++ b/src/files/BD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arang\Downloads\ProyectoFinalPoo\src\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OLD\Universidad\3° UN\P.O.O\Proyectos\ProyectoFinalPoo\src\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9ECF0CF-8693-4723-A716-B61D7B8A0117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA17E01E-55CE-484E-B6BF-FD2F973E6948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{98DE0EC7-51D9-420C-A038-21A631DBCF84}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{98DE0EC7-51D9-420C-A038-21A631DBCF84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - Preguntas" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,9 @@
     <t>Tema</t>
   </si>
   <si>
+    <t>Spofing</t>
+  </si>
+  <si>
     <t>Fishing</t>
   </si>
   <si>
@@ -374,9 +377,6 @@
   </si>
   <si>
     <t>Me di cuenta de que paso tanto tiempo en redes sociales que ya no realizo actividades como hacer ejercicio o leer. ¿Qué me recomendarías?</t>
-  </si>
-  <si>
-    <t>Spoofing</t>
   </si>
 </sst>
 </file>
@@ -1083,10 +1083,10 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I5"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50.7109375" style="4" customWidth="1"/>
@@ -1099,18 +1099,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>116</v>
+        <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -1118,10 +1118,10 @@
     </row>
     <row r="3" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>116</v>
+        <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C3" s="3">
         <v>2</v>
@@ -1129,10 +1129,10 @@
     </row>
     <row r="4" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>116</v>
+        <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C4" s="3">
         <v>3</v>
@@ -1140,10 +1140,10 @@
     </row>
     <row r="5" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>116</v>
+        <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C5" s="3">
         <v>4</v>
@@ -1151,10 +1151,10 @@
     </row>
     <row r="6" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C6" s="3">
         <v>5</v>
@@ -1162,10 +1162,10 @@
     </row>
     <row r="7" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C7" s="3">
         <v>6</v>
@@ -1173,10 +1173,10 @@
     </row>
     <row r="8" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C8" s="3">
         <v>7</v>
@@ -1184,10 +1184,10 @@
     </row>
     <row r="9" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C9" s="3">
         <v>8</v>
@@ -1195,10 +1195,10 @@
     </row>
     <row r="10" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C10" s="3">
         <v>9</v>
@@ -1206,10 +1206,10 @@
     </row>
     <row r="11" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C11" s="3">
         <v>10</v>
@@ -1217,10 +1217,10 @@
     </row>
     <row r="12" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C12" s="3">
         <v>11</v>
@@ -1228,10 +1228,10 @@
     </row>
     <row r="13" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C13" s="3">
         <v>12</v>
@@ -1240,9 +1240,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1255,7 +1254,7 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="60.7109375" style="5" customWidth="1"/>
@@ -1264,16 +1263,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1281,10 +1280,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D2" s="10">
         <v>100</v>
@@ -1295,10 +1294,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D3" s="10">
         <v>50</v>
@@ -1309,10 +1308,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D4" s="10">
         <v>-50</v>
@@ -1323,10 +1322,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D5" s="10">
         <v>-100</v>
@@ -1337,10 +1336,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D6" s="7">
         <v>100</v>
@@ -1351,10 +1350,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D7" s="11">
         <v>50</v>
@@ -1365,10 +1364,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D8" s="12">
         <v>-50</v>
@@ -1379,10 +1378,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D9" s="11">
         <v>-100</v>
@@ -1393,10 +1392,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D10" s="10">
         <v>100</v>
@@ -1407,10 +1406,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D11" s="10">
         <v>50</v>
@@ -1421,10 +1420,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D12" s="10">
         <v>-50</v>
@@ -1435,10 +1434,10 @@
         <v>3</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D13" s="10">
         <v>-100</v>
@@ -1449,10 +1448,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D14" s="12">
         <v>100</v>
@@ -1463,10 +1462,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D15" s="11">
         <v>50</v>
@@ -1477,10 +1476,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D16" s="12">
         <v>-50</v>
@@ -1491,10 +1490,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D17" s="11">
         <v>-100</v>
@@ -1505,10 +1504,10 @@
         <v>5</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D18" s="12">
         <v>100</v>
@@ -1519,10 +1518,10 @@
         <v>5</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D19" s="11">
         <v>50</v>
@@ -1533,10 +1532,10 @@
         <v>5</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D20" s="12">
         <v>-50</v>
@@ -1547,10 +1546,10 @@
         <v>5</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="11">
         <v>-100</v>
@@ -1561,10 +1560,10 @@
         <v>6</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="12">
         <v>100</v>
@@ -1575,10 +1574,10 @@
         <v>6</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="11">
         <v>50</v>
@@ -1589,10 +1588,10 @@
         <v>6</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D24" s="12">
         <v>-50</v>
@@ -1603,10 +1602,10 @@
         <v>6</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D25" s="11">
         <v>-100</v>
@@ -1617,10 +1616,10 @@
         <v>7</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D26" s="12">
         <v>100</v>
@@ -1631,10 +1630,10 @@
         <v>7</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D27" s="11">
         <v>50</v>
@@ -1645,10 +1644,10 @@
         <v>7</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D28" s="12">
         <v>-50</v>
@@ -1659,10 +1658,10 @@
         <v>7</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D29" s="11">
         <v>-100</v>
@@ -1673,10 +1672,10 @@
         <v>8</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D30" s="12">
         <v>100</v>
@@ -1687,10 +1686,10 @@
         <v>8</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D31" s="11">
         <v>50</v>
@@ -1701,10 +1700,10 @@
         <v>8</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D32" s="12">
         <v>-50</v>
@@ -1715,10 +1714,10 @@
         <v>8</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D33" s="11">
         <v>-100</v>
@@ -1729,10 +1728,10 @@
         <v>9</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D34" s="12">
         <v>100</v>
@@ -1743,10 +1742,10 @@
         <v>9</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D35" s="11">
         <v>50</v>
@@ -1757,10 +1756,10 @@
         <v>9</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D36" s="12">
         <v>-50</v>
@@ -1771,10 +1770,10 @@
         <v>9</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D37" s="11">
         <v>-100</v>
@@ -1785,10 +1784,10 @@
         <v>10</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D38" s="12">
         <v>100</v>
@@ -1799,10 +1798,10 @@
         <v>10</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D39" s="11">
         <v>50</v>
@@ -1813,10 +1812,10 @@
         <v>10</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D40" s="12">
         <v>-50</v>
@@ -1827,10 +1826,10 @@
         <v>10</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D41" s="11">
         <v>-100</v>
@@ -1841,10 +1840,10 @@
         <v>11</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D42" s="12">
         <v>100</v>
@@ -1855,10 +1854,10 @@
         <v>11</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D43" s="11">
         <v>50</v>
@@ -1869,10 +1868,10 @@
         <v>11</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D44" s="12">
         <v>-50</v>
@@ -1883,10 +1882,10 @@
         <v>11</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D45" s="11">
         <v>-100</v>
@@ -1897,10 +1896,10 @@
         <v>12</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D46" s="12">
         <v>100</v>
@@ -1911,24 +1910,24 @@
         <v>12</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D47" s="11">
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="18">
         <v>12</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D48" s="12">
         <v>-50</v>
@@ -1939,10 +1938,10 @@
         <v>12</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D49" s="13">
         <v>-100</v>

--- a/src/files/BD.xlsx
+++ b/src/files/BD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OLD\Universidad\3° UN\P.O.O\Proyectos\ProyectoFinalPoo\src\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arang\Downloads\ProyectoFinalPoo\src\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA17E01E-55CE-484E-B6BF-FD2F973E6948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A59DFCE-9C48-4E68-86F0-6A7EA4A46B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{98DE0EC7-51D9-420C-A038-21A631DBCF84}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{98DE0EC7-51D9-420C-A038-21A631DBCF84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - Preguntas" sheetId="1" r:id="rId1"/>
@@ -31,9 +31,6 @@
     <t>Tema</t>
   </si>
   <si>
-    <t>Spofing</t>
-  </si>
-  <si>
     <t>Fishing</t>
   </si>
   <si>
@@ -377,6 +374,9 @@
   </si>
   <si>
     <t>Me di cuenta de que paso tanto tiempo en redes sociales que ya no realizo actividades como hacer ejercicio o leer. ¿Qué me recomendarías?</t>
+  </si>
+  <si>
+    <t>Spoofing</t>
   </si>
 </sst>
 </file>
@@ -1083,10 +1083,10 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50.7109375" style="4" customWidth="1"/>
@@ -1099,18 +1099,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>116</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -1118,10 +1118,10 @@
     </row>
     <row r="3" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>1</v>
+        <v>116</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C3" s="3">
         <v>2</v>
@@ -1129,10 +1129,10 @@
     </row>
     <row r="4" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>1</v>
+        <v>116</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C4" s="3">
         <v>3</v>
@@ -1140,10 +1140,10 @@
     </row>
     <row r="5" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>1</v>
+        <v>116</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C5" s="3">
         <v>4</v>
@@ -1151,10 +1151,10 @@
     </row>
     <row r="6" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C6" s="3">
         <v>5</v>
@@ -1162,10 +1162,10 @@
     </row>
     <row r="7" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C7" s="3">
         <v>6</v>
@@ -1173,10 +1173,10 @@
     </row>
     <row r="8" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C8" s="3">
         <v>7</v>
@@ -1184,10 +1184,10 @@
     </row>
     <row r="9" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C9" s="3">
         <v>8</v>
@@ -1195,10 +1195,10 @@
     </row>
     <row r="10" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C10" s="3">
         <v>9</v>
@@ -1206,10 +1206,10 @@
     </row>
     <row r="11" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C11" s="3">
         <v>10</v>
@@ -1217,10 +1217,10 @@
     </row>
     <row r="12" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C12" s="3">
         <v>11</v>
@@ -1228,10 +1228,10 @@
     </row>
     <row r="13" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C13" s="3">
         <v>12</v>
@@ -1254,7 +1254,7 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="60.7109375" style="5" customWidth="1"/>
@@ -1263,16 +1263,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>5</v>
-      </c>
       <c r="C1" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1280,10 +1280,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D2" s="10">
         <v>100</v>
@@ -1294,10 +1294,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D3" s="10">
         <v>50</v>
@@ -1308,10 +1308,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D4" s="10">
         <v>-50</v>
@@ -1322,10 +1322,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D5" s="10">
         <v>-100</v>
@@ -1336,10 +1336,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6" s="7">
         <v>100</v>
@@ -1350,10 +1350,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" s="11">
         <v>50</v>
@@ -1364,10 +1364,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" s="12">
         <v>-50</v>
@@ -1378,10 +1378,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D9" s="11">
         <v>-100</v>
@@ -1392,10 +1392,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" s="10">
         <v>100</v>
@@ -1406,10 +1406,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D11" s="10">
         <v>50</v>
@@ -1420,10 +1420,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12" s="10">
         <v>-50</v>
@@ -1434,10 +1434,10 @@
         <v>3</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D13" s="10">
         <v>-100</v>
@@ -1448,10 +1448,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D14" s="12">
         <v>100</v>
@@ -1462,10 +1462,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D15" s="11">
         <v>50</v>
@@ -1476,10 +1476,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D16" s="12">
         <v>-50</v>
@@ -1490,10 +1490,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D17" s="11">
         <v>-100</v>
@@ -1504,10 +1504,10 @@
         <v>5</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D18" s="12">
         <v>100</v>
@@ -1518,10 +1518,10 @@
         <v>5</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D19" s="11">
         <v>50</v>
@@ -1532,10 +1532,10 @@
         <v>5</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D20" s="12">
         <v>-50</v>
@@ -1546,10 +1546,10 @@
         <v>5</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="11">
         <v>-100</v>
@@ -1560,10 +1560,10 @@
         <v>6</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="12">
         <v>100</v>
@@ -1574,10 +1574,10 @@
         <v>6</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="11">
         <v>50</v>
@@ -1588,10 +1588,10 @@
         <v>6</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24" s="12">
         <v>-50</v>
@@ -1602,10 +1602,10 @@
         <v>6</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D25" s="11">
         <v>-100</v>
@@ -1616,10 +1616,10 @@
         <v>7</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D26" s="12">
         <v>100</v>
@@ -1630,10 +1630,10 @@
         <v>7</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D27" s="11">
         <v>50</v>
@@ -1644,10 +1644,10 @@
         <v>7</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D28" s="12">
         <v>-50</v>
@@ -1658,10 +1658,10 @@
         <v>7</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D29" s="11">
         <v>-100</v>
@@ -1672,10 +1672,10 @@
         <v>8</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D30" s="12">
         <v>100</v>
@@ -1686,10 +1686,10 @@
         <v>8</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D31" s="11">
         <v>50</v>
@@ -1700,10 +1700,10 @@
         <v>8</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D32" s="12">
         <v>-50</v>
@@ -1714,10 +1714,10 @@
         <v>8</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D33" s="11">
         <v>-100</v>
@@ -1728,10 +1728,10 @@
         <v>9</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D34" s="12">
         <v>100</v>
@@ -1742,10 +1742,10 @@
         <v>9</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D35" s="11">
         <v>50</v>
@@ -1756,10 +1756,10 @@
         <v>9</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D36" s="12">
         <v>-50</v>
@@ -1770,10 +1770,10 @@
         <v>9</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D37" s="11">
         <v>-100</v>
@@ -1784,10 +1784,10 @@
         <v>10</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D38" s="12">
         <v>100</v>
@@ -1798,10 +1798,10 @@
         <v>10</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D39" s="11">
         <v>50</v>
@@ -1812,10 +1812,10 @@
         <v>10</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D40" s="12">
         <v>-50</v>
@@ -1826,10 +1826,10 @@
         <v>10</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D41" s="11">
         <v>-100</v>
@@ -1840,10 +1840,10 @@
         <v>11</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D42" s="12">
         <v>100</v>
@@ -1854,10 +1854,10 @@
         <v>11</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D43" s="11">
         <v>50</v>
@@ -1868,10 +1868,10 @@
         <v>11</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D44" s="12">
         <v>-50</v>
@@ -1882,10 +1882,10 @@
         <v>11</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D45" s="11">
         <v>-100</v>
@@ -1896,10 +1896,10 @@
         <v>12</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D46" s="12">
         <v>100</v>
@@ -1910,24 +1910,24 @@
         <v>12</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D47" s="11">
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="18">
         <v>12</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D48" s="12">
         <v>-50</v>
@@ -1938,10 +1938,10 @@
         <v>12</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D49" s="13">
         <v>-100</v>

--- a/src/files/BD.xlsx
+++ b/src/files/BD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arang\Downloads\ProyectoFinalPoo\src\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OLD\Universidad\3° UN\P.O.O\Proyectos\ProyectoFinalPoo\src\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A59DFCE-9C48-4E68-86F0-6A7EA4A46B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A723E4DC-1B0F-4655-BFF8-BA051D031D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{98DE0EC7-51D9-420C-A038-21A631DBCF84}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{98DE0EC7-51D9-420C-A038-21A631DBCF84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - Preguntas" sheetId="1" r:id="rId1"/>
@@ -355,15 +355,6 @@
     <t>Recibi un mensaje de texto de un número que parece oficial, informándome de un supuesto problema en mi cuenta bancaria. ¿Qué sería lo mejor que podría hacer?</t>
   </si>
   <si>
-    <t>Un familiar me comento que recibio una llamada donde el interlocutor afirma ser del banco y le pide sus datos personales. ¿Qué consejo le daría?</t>
-  </si>
-  <si>
-    <t>Mi madre me comento que recibió un correo donde le piden su contraseña para confirmar un pago que no reconoce. ¿Qué le recomendaría hacer?</t>
-  </si>
-  <si>
-    <t>Un familiar me dice que recibió un mensaje por redes sociales donde le piden confirmar datos personales para evitar el cierre de su cuenta. ¿Qué le sugeriría?</t>
-  </si>
-  <si>
     <t>Paso casi todo el día en videojuegos y he empezado a tener problemas de concentración en la universidad. ¿Qué debería hacer?</t>
   </si>
   <si>
@@ -377,6 +368,15 @@
   </si>
   <si>
     <t>Spoofing</t>
+  </si>
+  <si>
+    <t>Recibi una llamada donde el interlocutor afirma ser del banco y me pide mis datos personales. ¿Qué debería hacer?</t>
+  </si>
+  <si>
+    <t>Recibi un correo donde me piden mi contraseña para confirmar un pago que no reconozco. ¿Qué debería hacer?</t>
+  </si>
+  <si>
+    <t>Recibi un mensaje por redes sociales donde me piden confirmar datos personales para evitar el cierre de mi cuenta. ¿Qué debería hacer?</t>
   </si>
 </sst>
 </file>
@@ -1082,11 +1082,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9EEBFF0-9B64-4854-9DC8-E9756050ED9C}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50.7109375" style="4" customWidth="1"/>
@@ -1107,7 +1107,7 @@
     </row>
     <row r="2" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>104</v>
@@ -1118,10 +1118,10 @@
     </row>
     <row r="3" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C3" s="3">
         <v>2</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="4" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>108</v>
@@ -1140,7 +1140,7 @@
     </row>
     <row r="5" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>105</v>
@@ -1176,7 +1176,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C8" s="3">
         <v>7</v>
@@ -1187,7 +1187,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C9" s="3">
         <v>8</v>
@@ -1198,7 +1198,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C10" s="3">
         <v>9</v>
@@ -1209,7 +1209,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C11" s="3">
         <v>10</v>
@@ -1220,7 +1220,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C12" s="3">
         <v>11</v>
@@ -1231,7 +1231,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C13" s="3">
         <v>12</v>
@@ -1254,7 +1254,7 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="60.7109375" style="5" customWidth="1"/>
@@ -1919,7 +1919,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="18">
         <v>12</v>
       </c>

--- a/src/files/BD.xlsx
+++ b/src/files/BD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OLD\Universidad\3° UN\P.O.O\Proyectos\ProyectoFinalPoo\src\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A723E4DC-1B0F-4655-BFF8-BA051D031D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFFEA6E8-6520-47B5-852C-36A465EDB0D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{98DE0EC7-51D9-420C-A038-21A631DBCF84}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{98DE0EC7-51D9-420C-A038-21A631DBCF84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - Preguntas" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="122">
   <si>
     <t>Tema</t>
   </si>
@@ -377,6 +377,21 @@
   </si>
   <si>
     <t>Recibi un mensaje por redes sociales donde me piden confirmar datos personales para evitar el cierre de mi cuenta. ¿Qué debería hacer?</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -398,7 +413,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -423,8 +438,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -520,42 +577,23 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
+      <left/>
       <right/>
       <top style="thin">
         <color theme="4" tint="0.39997558519241921"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -564,49 +602,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -614,21 +697,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -650,7 +718,38 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -688,26 +787,10 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border>
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -751,13 +834,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FFFA1768-5FAF-4578-8DE0-3F1BFAA92D71}" name="Table2" displayName="Table2" ref="A1:D49" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FFFA1768-5FAF-4578-8DE0-3F1BFAA92D71}" name="Table2" displayName="Table2" ref="A1:D49" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <autoFilter ref="A1:D49" xr:uid="{FFFA1768-5FAF-4578-8DE0-3F1BFAA92D71}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1F8EB648-9598-45BF-8175-EBD0DC0F3BA9}" name="id" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{515D636B-AF71-4214-BD19-494593935D8B}" name="Opcion" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{CDB08CD7-52D6-40C4-B7B2-A92A48F682A4}" name="Explicacion" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{8E8ED669-FC2C-4565-8DE4-B7A5FE6772C0}" name="Valor" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{1F8EB648-9598-45BF-8175-EBD0DC0F3BA9}" name="id" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{515D636B-AF71-4214-BD19-494593935D8B}" name="Opcion" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{CDB08CD7-52D6-40C4-B7B2-A92A48F682A4}" name="Explicacion" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{8E8ED669-FC2C-4565-8DE4-B7A5FE6772C0}" name="Valor" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1082,158 +1165,158 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9EEBFF0-9B64-4854-9DC8-E9756050ED9C}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="3"/>
-    <col min="4" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="1">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="1">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="1">
         <v>12</v>
       </c>
     </row>
@@ -1248,703 +1331,822 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24B70C11-B6DB-4E42-8D48-D43A2A7EC852}">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:U50"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="60.7109375" style="5" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="60.7109375" style="4" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="4"/>
+    <col min="6" max="18" width="3.7109375" style="4" customWidth="1"/>
+    <col min="19" max="22" width="9.140625" style="4"/>
+    <col min="23" max="25" width="41" style="4" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="17">
+    <row r="2" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="22">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="23">
+        <v>-50</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4">
+        <v>2</v>
+      </c>
+      <c r="I2" s="4">
+        <v>3</v>
+      </c>
+      <c r="J2" s="4">
+        <v>4</v>
+      </c>
+      <c r="K2" s="4">
+        <v>5</v>
+      </c>
+      <c r="L2" s="4">
+        <v>6</v>
+      </c>
+      <c r="M2" s="4">
+        <v>7</v>
+      </c>
+      <c r="N2" s="4">
+        <v>8</v>
+      </c>
+      <c r="O2" s="4">
+        <v>9</v>
+      </c>
+      <c r="P2" s="4">
         <v>10</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="Q2" s="4">
+        <v>11</v>
+      </c>
+      <c r="R2" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="22">
+        <v>1</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D3" s="23">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="17">
+      <c r="F3" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="8"/>
+      <c r="T3" s="4">
+        <v>100</v>
+      </c>
+      <c r="U3" s="7"/>
+    </row>
+    <row r="4" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="22">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B4" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="24">
+        <v>-100</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="6"/>
+      <c r="T4" s="4">
+        <v>50</v>
+      </c>
+      <c r="U4" s="6"/>
+    </row>
+    <row r="5" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="22">
+        <v>1</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C5" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D5" s="24">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
-        <v>1</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" s="10">
+      <c r="F5" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="7"/>
+      <c r="T5" s="4">
         <v>-50</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
-        <v>1</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="10">
+      <c r="U5" s="5"/>
+    </row>
+    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="25">
+        <v>2</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="26">
+        <v>50</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="5"/>
+      <c r="T6" s="4">
         <v>-100</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="U6" s="8"/>
+    </row>
+    <row r="7" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="27">
         <v>2</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="26">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="27">
+        <v>2</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C8" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D8" s="26">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="18">
+    <row r="9" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="27">
         <v>2</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="11">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
-        <v>2</v>
-      </c>
-      <c r="B8" s="7" t="s">
+      <c r="B9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C9" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D9" s="26">
         <v>-50</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="18">
-        <v>2</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="11">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
+    <row r="10" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="22">
         <v>3</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="28">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="17">
+    <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="22">
         <v>3</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="29">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
+    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="22">
         <v>3</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="28">
         <v>-50</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="17">
+    <row r="13" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="22">
         <v>3</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="29">
         <v>-100</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="18">
+    <row r="14" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="27">
         <v>4</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="26">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="27">
+        <v>4</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="26">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="27">
+        <v>4</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="26">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="27">
+        <v>4</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C17" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D17" s="26">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="18">
-        <v>4</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D15" s="11">
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="22">
+        <v>5</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="29">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="22">
+        <v>5</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="29">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="18">
-        <v>4</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="D16" s="12">
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="22">
+        <v>5</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="29">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="22">
+        <v>5</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="27">
+        <v>6</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="27">
+        <v>6</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="26">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="27">
+        <v>6</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="26">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="27">
+        <v>6</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="26">
         <v>-50</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="18">
-        <v>4</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D17" s="11">
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="22">
+        <v>7</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="29">
         <v>-100</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="17">
-        <v>5</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="12">
+    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="22">
+        <v>7</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="29">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="17">
-        <v>5</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="11">
+    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="22">
+        <v>7</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="29">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="22">
+        <v>7</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="29">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="17">
-        <v>5</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="12">
+    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="27">
+        <v>8</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="26">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="27">
+        <v>8</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="26">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="27">
+        <v>8</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="27">
+        <v>8</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="26">
         <v>-50</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="17">
-        <v>5</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="11">
+    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="30">
+        <v>9</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="30">
+        <v>9</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" s="29">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="30">
+        <v>9</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="29">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="30">
+        <v>9</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="29">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="18">
-        <v>6</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="12">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="27">
+        <v>10</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" s="26">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="27">
+        <v>10</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" s="26">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="18">
-        <v>6</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" s="11">
+    <row r="40" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="27">
+        <v>10</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" s="26">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="27">
+        <v>10</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" s="26">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="30">
+        <v>11</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" s="29">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="30">
+        <v>11</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" s="29">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="30">
+        <v>11</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" s="29">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="18">
-        <v>6</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" s="12">
+    <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="30">
+        <v>11</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D45" s="29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="27">
+        <v>12</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D46" s="26">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="27">
+        <v>12</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D47" s="26">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="27">
+        <v>12</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48" s="26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="31">
+        <v>12</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D49" s="26">
         <v>-50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="18">
-        <v>6</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25" s="11">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="17">
-        <v>7</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="17">
-        <v>7</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D27" s="11">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="17">
-        <v>7</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D28" s="12">
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="17">
-        <v>7</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29" s="11">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="18">
-        <v>8</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D30" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="18">
-        <v>8</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D31" s="11">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="18">
-        <v>8</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D32" s="12">
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="18">
-        <v>8</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D33" s="11">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="19">
-        <v>9</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D34" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="19">
-        <v>9</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D35" s="11">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="19">
-        <v>9</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D36" s="12">
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="19">
-        <v>9</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D37" s="11">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="18">
-        <v>10</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D38" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="18">
-        <v>10</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D39" s="11">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="18">
-        <v>10</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D40" s="12">
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="18">
-        <v>10</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D41" s="11">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="19">
-        <v>11</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D42" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="19">
-        <v>11</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D43" s="11">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="19">
-        <v>11</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D44" s="12">
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="19">
-        <v>11</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D45" s="11">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="18">
-        <v>12</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D46" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="18">
-        <v>12</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D47" s="11">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="18">
-        <v>12</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D48" s="12">
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49" s="20">
-        <v>12</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D49" s="13">
-        <v>-100</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.25"/>
